--- a/BGW_statistics.xlsx
+++ b/BGW_statistics.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\PhD\Artículos\CRM and TAD BioGateway\Final Version - Correcciones revisores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\cisreg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4051EF10-9B60-4A1B-B1FB-99797CD4D743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC4662-CA99-4B56-A96E-1D0A132EFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hGBW" sheetId="1" r:id="rId1"/>
+    <sheet name="BGW" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
   <si>
     <t>Graph name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>256,463 (20,610 from Homo sapiens)</t>
-  </si>
-  <si>
     <t>Number of different encoded proteins</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Proteins</t>
   </si>
   <si>
-    <t>718,258 (81,791 from Homo sapiens)</t>
-  </si>
-  <si>
     <t>Number of different genes</t>
   </si>
   <si>
@@ -131,15 +125,6 @@
     <t>Number of different biological processes</t>
   </si>
   <si>
-    <t>27,941</t>
-  </si>
-  <si>
-    <t>4,042</t>
-  </si>
-  <si>
-    <t>11,262</t>
-  </si>
-  <si>
     <t>Number of different molecular function</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>Molecular Interactions Ontology</t>
   </si>
   <si>
-    <t>1,566</t>
-  </si>
-  <si>
     <t>taxon</t>
   </si>
   <si>
@@ -188,39 +170,18 @@
     <t>Number of protein-biological processes relations</t>
   </si>
   <si>
-    <t>540,460 (80,911 from human)</t>
-  </si>
-  <si>
     <t>Number of different proteins involved</t>
   </si>
   <si>
-    <t>401,515 (41,419 from human)</t>
-  </si>
-  <si>
     <t>Number of different bp involved</t>
   </si>
   <si>
-    <t>17,317 (12,731 about human)</t>
-  </si>
-  <si>
     <t>prot2cc</t>
   </si>
   <si>
-    <t>410,616 (44,748 from human)</t>
-  </si>
-  <si>
     <t>Number of different cc involved</t>
   </si>
   <si>
-    <t>2,541 (1,816 about human)</t>
-  </si>
-  <si>
-    <t>54,532 (16,556 about human)</t>
-  </si>
-  <si>
-    <t>104,798 (26,153 about human)</t>
-  </si>
-  <si>
     <t>prot2mf</t>
   </si>
   <si>
@@ -236,18 +197,9 @@
     <t>Number of protein-molecular functions relations</t>
   </si>
   <si>
-    <t>408,312 (42,339 from human)</t>
-  </si>
-  <si>
-    <t>6,405 (4,679 about human)</t>
-  </si>
-  <si>
     <t>Number of different mf involved</t>
   </si>
   <si>
-    <t>69,816 (29,535 about human)</t>
-  </si>
-  <si>
     <t>prot2prot</t>
   </si>
   <si>
@@ -257,12 +209,6 @@
     <t>Number of protein-protein functions relations</t>
   </si>
   <si>
-    <t>54,102 (17,987 from human)</t>
-  </si>
-  <si>
-    <t>5,424 (3,367 about human)</t>
-  </si>
-  <si>
     <t>tfac2gene</t>
   </si>
   <si>
@@ -278,12 +224,6 @@
     <t>Number of general transcription factors-target genes relations</t>
   </si>
   <si>
-    <t>4,200 (1,862 from human)</t>
-  </si>
-  <si>
-    <t>91,367 (19,806 from human)</t>
-  </si>
-  <si>
     <t>Number of different dbTFs involved in general relations</t>
   </si>
   <si>
@@ -296,30 +236,12 @@
     <t>Number of different target genes involved in positive relations</t>
   </si>
   <si>
-    <t>1,579 (811 from human)</t>
-  </si>
-  <si>
-    <t>9,912 (3,537 from human)</t>
-  </si>
-  <si>
     <t>Number of different dbTFs involved in negative relations</t>
   </si>
   <si>
     <t>Number of different target genes involved in negative relations</t>
   </si>
   <si>
-    <t>1,380 (712 from human)</t>
-  </si>
-  <si>
-    <t>7,822 (2,019 from human)</t>
-  </si>
-  <si>
-    <t>reg2targ</t>
-  </si>
-  <si>
-    <t>protein-protein regulatory relations</t>
-  </si>
-  <si>
     <t>2 (3DGB and TADKB)</t>
   </si>
   <si>
@@ -338,48 +260,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>Number of different general protein-protein regulatory relations</t>
-  </si>
-  <si>
-    <t>Number of different positive protein-protein regulatory relations</t>
-  </si>
-  <si>
-    <t>Number of different negative protein-protein regulatory relations</t>
-  </si>
-  <si>
-    <t>Number of different general protein involved</t>
-  </si>
-  <si>
-    <t>18,865</t>
-  </si>
-  <si>
-    <t>Number of different positive protein involved</t>
-  </si>
-  <si>
-    <t>Number of different negative protein involved</t>
-  </si>
-  <si>
-    <t>7,866</t>
-  </si>
-  <si>
-    <t>Number of different indirect protein-protein regulatory relations</t>
-  </si>
-  <si>
-    <t>Number of different indirect protein involved</t>
-  </si>
-  <si>
-    <t>Number of different direct protein involved</t>
-  </si>
-  <si>
-    <t>Number of different direct protein-protein regulatory relations</t>
-  </si>
-  <si>
-    <t>7,747</t>
-  </si>
-  <si>
-    <t>1,255</t>
-  </si>
-  <si>
     <t>Number of different articles (pubmed ID)</t>
   </si>
   <si>
@@ -401,9 +281,6 @@
     <t>Number of different relations</t>
   </si>
   <si>
-    <t>1,805,780</t>
-  </si>
-  <si>
     <t>1 (OrthoDB)</t>
   </si>
   <si>
@@ -449,21 +326,12 @@
     <t>16 (CancerEnD, JEME, EnDisease, FANTOM5, FOCS, HACER, EnnhancerAtlas 2.0, SEA 3.0, SEdb 2.0, scEnhancer, EnhFFL, GeneHancer 4.8, dbSUPER, DiseaseEnhancer, ENdb, VISTA)</t>
   </si>
   <si>
-    <t>12,644,665</t>
-  </si>
-  <si>
     <t>Number of different crm involved</t>
   </si>
   <si>
     <t>Number of different target involved</t>
   </si>
   <si>
-    <t>37,411 (20,197 bgw genes and 17,214 other targets)</t>
-  </si>
-  <si>
-    <t>5,427,582 (4,841,209 with bgw genes and 1,031,983 with other targets)</t>
-  </si>
-  <si>
     <t>474</t>
   </si>
   <si>
@@ -530,73 +398,142 @@
     <t>103,087</t>
   </si>
   <si>
-    <t>2,490,774</t>
-  </si>
-  <si>
-    <t>51,063</t>
-  </si>
-  <si>
-    <t>1,690,573 (205,000 about human)</t>
-  </si>
-  <si>
-    <t>1,156,737 (155,236 about human)</t>
-  </si>
-  <si>
-    <t>1,299,170 (145,113 about human)</t>
-  </si>
-  <si>
-    <t>427,216 (264,181 about human)</t>
-  </si>
-  <si>
-    <t>11,427,308 (6,636,777 about human)</t>
-  </si>
-  <si>
-    <t>108,728 (15,376 from human)</t>
-  </si>
-  <si>
     <t>Number of different positive dbTFs-target genes relations</t>
   </si>
   <si>
     <t>Number of negative dbTFs-target genes relations</t>
   </si>
   <si>
-    <t>80,822 (6,815 from human)</t>
-  </si>
-  <si>
-    <t>10 (Signor, Fuxman bass lab, GEREDB, NTNU, TFactS, TRRUST, ExTRI, IntAct, htri, TFLink)</t>
-  </si>
-  <si>
-    <t>42,157 (38,410 about human)</t>
-  </si>
-  <si>
-    <t>26,739</t>
-  </si>
-  <si>
-    <t>6,011 (4,020 like subjects and 4,498 like objects)</t>
-  </si>
-  <si>
-    <t>5,171 (3,173 like subjects and 3,802 like objects)</t>
-  </si>
-  <si>
-    <t>3,159 (1,756 like subjects and 2,155 like objects)</t>
-  </si>
-  <si>
-    <t>1 (Signor)</t>
-  </si>
-  <si>
-    <t>8,709</t>
-  </si>
-  <si>
-    <t>1,316 (994 like subjects and 927 like objects)</t>
-  </si>
-  <si>
-    <t>380 (195 like subjects and 253 like objects)</t>
-  </si>
-  <si>
-    <t>192,245 (21,260 from Homo sapiens)</t>
-  </si>
-  <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>255,461 (20,605 from Homo sapiens)</t>
+  </si>
+  <si>
+    <t>525,012 (81,771 from human)</t>
+  </si>
+  <si>
+    <t>703,277 (82,669 from Homo sapiens)</t>
+  </si>
+  <si>
+    <t>1,636</t>
+  </si>
+  <si>
+    <t>2,544,549</t>
+  </si>
+  <si>
+    <t>51,304</t>
+  </si>
+  <si>
+    <t>27,473</t>
+  </si>
+  <si>
+    <t>4,061</t>
+  </si>
+  <si>
+    <t>11,235</t>
+  </si>
+  <si>
+    <t>37,411 (19,977 bgw genes)</t>
+  </si>
+  <si>
+    <t>4,941</t>
+  </si>
+  <si>
+    <t>3,563</t>
+  </si>
+  <si>
+    <t>4,731</t>
+  </si>
+  <si>
+    <t>1,650,642 (201,323 about human)</t>
+  </si>
+  <si>
+    <t>397,444 (41,814 from human)</t>
+  </si>
+  <si>
+    <t>16,932 (12,431 about human)</t>
+  </si>
+  <si>
+    <t>106,523 (27,070 about human)</t>
+  </si>
+  <si>
+    <t>1,210,753 (165,372 about human)</t>
+  </si>
+  <si>
+    <t>424,281 (48,143 from human)</t>
+  </si>
+  <si>
+    <t>2,558 (1,837 about human)</t>
+  </si>
+  <si>
+    <t>53,870 (17,369 about human)</t>
+  </si>
+  <si>
+    <t>1,321,211 (150,695 about human)</t>
+  </si>
+  <si>
+    <t>412,983 (44,381 from human)</t>
+  </si>
+  <si>
+    <t>6,461 (4,736 about human)</t>
+  </si>
+  <si>
+    <t>72,229 (30,916 about human)</t>
+  </si>
+  <si>
+    <t>449,903 (272,591 about human)</t>
+  </si>
+  <si>
+    <t>60,349 (17,924 from human)</t>
+  </si>
+  <si>
+    <t>5,470 (3,402 about human)</t>
+  </si>
+  <si>
+    <t>10,730,765 (6,347,556 about human)</t>
+  </si>
+  <si>
+    <t>3,920 (1,868 from human)</t>
+  </si>
+  <si>
+    <t>73,514 (18,453 from human)</t>
+  </si>
+  <si>
+    <t>129,863 (36,713 from human)</t>
+  </si>
+  <si>
+    <t>1,908 (1,159 from human)</t>
+  </si>
+  <si>
+    <t>12,713 (6,418 from human)</t>
+  </si>
+  <si>
+    <t>80,457 (6,537 from human)</t>
+  </si>
+  <si>
+    <t>1,480 (825 from human)</t>
+  </si>
+  <si>
+    <t>7,963 (2,210 from human)</t>
+  </si>
+  <si>
+    <t>2 (CollecTRI, TFLink)</t>
+  </si>
+  <si>
+    <t>40,546 (36,952 about human)</t>
+  </si>
+  <si>
+    <t>1,884,900</t>
+  </si>
+  <si>
+    <t>196,024 (21,309 from Homo sapiens)</t>
+  </si>
+  <si>
+    <t>5,427,582 (4,823,068 with bgw genes)</t>
+  </si>
+  <si>
+    <t>12,644,665 (11,324,215 relations with bgw genes, i.e protein coding genes)</t>
   </si>
 </sst>
 </file>
@@ -998,11 +935,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1010,16 +945,16 @@
     <col min="2" max="2" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1033,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,24 +990,24 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -1083,77 +1018,77 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1164,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -1181,18 +1116,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -1201,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1209,24 +1144,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -1234,7 +1169,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -1243,43 +1178,43 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1290,10 +1225,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,29 +1239,29 @@
         <v>15</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>16</v>
@@ -1337,35 +1272,35 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1373,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
@@ -1387,41 +1322,41 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1429,35 +1364,35 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1465,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
@@ -1487,35 +1422,35 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4.8410000000000002</v>
+        <v>36</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="4">
-        <v>3.4790000000000001</v>
+        <v>37</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1523,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4.617</v>
+        <v>38</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1537,71 +1472,71 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1623,27 +1558,27 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1651,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1665,27 +1600,27 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1693,31 +1628,31 @@
         <v>4</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D57" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D58" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D59" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1733,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1741,15 +1676,15 @@
         <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D64" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -1757,31 +1692,31 @@
         <v>4</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -1789,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -1797,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
@@ -1805,12 +1740,12 @@
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>16</v>
@@ -1821,23 +1756,23 @@
         <v>4</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75" s="11" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -1845,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -1853,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
@@ -1861,95 +1796,95 @@
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" s="11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" s="11" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" s="11" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" s="11" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" s="11" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" s="11" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" s="11" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" s="11" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -1957,175 +1892,55 @@
         <v>6</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D94" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D95" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>93</v>
+      <c r="E95" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>181</v>
+        <v>1</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="11" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="11" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="11" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="11" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D101" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D102" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D103" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D104" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D105" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D106" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D107" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D108" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D110" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D112" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D113" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D115" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/BGW_statistics.xlsx
+++ b/BGW_statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\cisreg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\PhD\Artículos\CRM and TAD BioGateway\Final Version - Correcciones revisores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC4662-CA99-4B56-A96E-1D0A132EFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8F2D9-3C89-4227-B345-ABA086805007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
   <si>
     <t>Graph name</t>
   </si>
@@ -242,6 +242,12 @@
     <t>Number of different target genes involved in negative relations</t>
   </si>
   <si>
+    <t>reg2targ</t>
+  </si>
+  <si>
+    <t>protein-protein regulatory relations</t>
+  </si>
+  <si>
     <t>2 (3DGB and TADKB)</t>
   </si>
   <si>
@@ -260,6 +266,36 @@
     <t>7</t>
   </si>
   <si>
+    <t>Number of different general protein-protein regulatory relations</t>
+  </si>
+  <si>
+    <t>Number of different positive protein-protein regulatory relations</t>
+  </si>
+  <si>
+    <t>Number of different negative protein-protein regulatory relations</t>
+  </si>
+  <si>
+    <t>Number of different general protein involved</t>
+  </si>
+  <si>
+    <t>Number of different positive protein involved</t>
+  </si>
+  <si>
+    <t>Number of different negative protein involved</t>
+  </si>
+  <si>
+    <t>Number of different indirect protein-protein regulatory relations</t>
+  </si>
+  <si>
+    <t>Number of different indirect protein involved</t>
+  </si>
+  <si>
+    <t>Number of different direct protein involved</t>
+  </si>
+  <si>
+    <t>Number of different direct protein-protein regulatory relations</t>
+  </si>
+  <si>
     <t>Number of different articles (pubmed ID)</t>
   </si>
   <si>
@@ -404,6 +440,9 @@
     <t>Number of negative dbTFs-target genes relations</t>
   </si>
   <si>
+    <t>1 (Signor)</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -534,13 +573,46 @@
   </si>
   <si>
     <t>12,644,665 (11,324,215 relations with bgw genes, i.e protein coding genes)</t>
+  </si>
+  <si>
+    <t>27,525</t>
+  </si>
+  <si>
+    <t>6,335 (4,167 like subjects and 4,787 like objects)</t>
+  </si>
+  <si>
+    <t>18,975</t>
+  </si>
+  <si>
+    <t>5,382 (3,289 like subjects and 3,964 like objects)</t>
+  </si>
+  <si>
+    <t>8,579</t>
+  </si>
+  <si>
+    <t>3,398 (1,842 like subjects and 2,352 like objects)</t>
+  </si>
+  <si>
+    <t>9,194</t>
+  </si>
+  <si>
+    <t>7,735</t>
+  </si>
+  <si>
+    <t>1,330 (1,008 like subjects and 927 like objects)</t>
+  </si>
+  <si>
+    <t>1,247</t>
+  </si>
+  <si>
+    <t>374 (193 like subjects and 249 like objects)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +632,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -647,6 +732,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -968,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -990,13 +1086,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,77 +1114,77 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -1116,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1144,18 +1240,18 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -1169,7 +1265,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -1178,43 +1274,43 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,10 +1335,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,13 +1368,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1286,21 +1382,21 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1336,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1353,10 +1449,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1364,29 +1460,29 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>0</v>
@@ -1428,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1436,13 +1532,13 @@
         <v>27</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1450,7 +1546,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1464,7 +1560,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,7 +1576,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>0</v>
@@ -1494,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>1</v>
@@ -1508,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>24</v>
@@ -1522,13 +1618,13 @@
         <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,7 +1632,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1550,7 +1646,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1564,7 +1660,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,13 +1668,13 @@
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1614,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>24</v>
@@ -1628,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1636,7 +1732,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1644,7 +1740,7 @@
         <v>44</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1652,7 +1748,7 @@
         <v>47</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1660,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1692,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -1700,7 +1796,7 @@
         <v>52</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -1708,7 +1804,7 @@
         <v>44</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -1716,7 +1812,7 @@
         <v>53</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -1724,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -1756,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
@@ -1764,7 +1860,7 @@
         <v>56</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -1772,7 +1868,7 @@
         <v>44</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -1780,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -1804,7 +1900,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -1812,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -1820,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -1828,7 +1924,7 @@
         <v>62</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -1836,15 +1932,15 @@
         <v>63</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" s="11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -1852,7 +1948,7 @@
         <v>64</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -1860,15 +1956,15 @@
         <v>65</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" s="11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -1876,7 +1972,7 @@
         <v>66</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -1884,7 +1980,7 @@
         <v>67</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -1892,55 +1988,175 @@
         <v>6</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D102" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D103" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D105" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D107" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D108" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D110" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D96" s="11" t="s">
+      <c r="E110" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D111" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D97" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D98" s="11" t="s">
+      <c r="E111" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D112" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D113" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D99" s="11" t="s">
+      <c r="E113" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D114" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D100" s="11" t="s">
+      <c r="E114" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D115" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>81</v>
+      <c r="E115" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/BGW_statistics.xlsx
+++ b/BGW_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\PhD\Artículos\CRM and TAD BioGateway\Final Version - Correcciones revisores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8F2D9-3C89-4227-B345-ABA086805007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5A82D-F228-47F2-8B4E-C13CE1C51ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BGW" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="191">
   <si>
     <t>Graph name</t>
   </si>
@@ -263,9 +263,6 @@
     <t>1 (IntAct)</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Number of different general protein-protein regulatory relations</t>
   </si>
   <si>
@@ -299,12 +296,6 @@
     <t>Number of different articles (pubmed ID)</t>
   </si>
   <si>
-    <t>Number of different cell lines (Cell Ontology terms)</t>
-  </si>
-  <si>
-    <t>Number of different cell types (Cell Line Ontology terms)</t>
-  </si>
-  <si>
     <t>Number of different anatomical structures (UBERON terms)</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Number of different pubmed articles</t>
   </si>
   <si>
-    <t>182,181</t>
-  </si>
-  <si>
     <t>Number of different evidence levels</t>
   </si>
   <si>
@@ -530,39 +518,6 @@
     <t>5,470 (3,402 about human)</t>
   </si>
   <si>
-    <t>10,730,765 (6,347,556 about human)</t>
-  </si>
-  <si>
-    <t>3,920 (1,868 from human)</t>
-  </si>
-  <si>
-    <t>73,514 (18,453 from human)</t>
-  </si>
-  <si>
-    <t>129,863 (36,713 from human)</t>
-  </si>
-  <si>
-    <t>1,908 (1,159 from human)</t>
-  </si>
-  <si>
-    <t>12,713 (6,418 from human)</t>
-  </si>
-  <si>
-    <t>80,457 (6,537 from human)</t>
-  </si>
-  <si>
-    <t>1,480 (825 from human)</t>
-  </si>
-  <si>
-    <t>7,963 (2,210 from human)</t>
-  </si>
-  <si>
-    <t>2 (CollecTRI, TFLink)</t>
-  </si>
-  <si>
-    <t>40,546 (36,952 about human)</t>
-  </si>
-  <si>
     <t>1,884,900</t>
   </si>
   <si>
@@ -606,6 +561,54 @@
   </si>
   <si>
     <t>374 (193 like subjects and 249 like objects)</t>
+  </si>
+  <si>
+    <t>Number of different cell lines (Cell Line Ontology terms)</t>
+  </si>
+  <si>
+    <t>Number of different cell types (Cell Ontology terms)</t>
+  </si>
+  <si>
+    <t>185,113</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3 (CollecTRI, TFLink, AGRIS)</t>
+  </si>
+  <si>
+    <t>11,181,907 (6,519,994 about human)</t>
+  </si>
+  <si>
+    <t>40,740 (36,962 about human)</t>
+  </si>
+  <si>
+    <t>4,710 (1,868 from human)</t>
+  </si>
+  <si>
+    <t>88,737 (18,811 from human)</t>
+  </si>
+  <si>
+    <t>139,262 (36,765 from human)</t>
+  </si>
+  <si>
+    <t>2,133 (1,160 from human)</t>
+  </si>
+  <si>
+    <t>15,793 (6,421 from human)</t>
+  </si>
+  <si>
+    <t>83,993 (6,553 from human)</t>
+  </si>
+  <si>
+    <t>1,555 (826 from human)</t>
+  </si>
+  <si>
+    <t>8,961 (2,214 from human)</t>
+  </si>
+  <si>
+    <t>276</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,13 +1089,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,77 +1117,77 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="11" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,9 +1198,11 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1212,13 +1217,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1243,15 +1248,15 @@
         <v>70</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -1265,7 +1270,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -1274,43 +1279,43 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1321,10 +1326,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1335,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,13 +1351,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,21 +1387,21 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1424,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,13 +1437,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,10 +1454,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,26 +1468,26 @@
         <v>71</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>0</v>
@@ -1532,13 +1537,13 @@
         <v>27</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1546,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1560,7 +1565,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1576,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>0</v>
@@ -1590,7 +1595,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>1</v>
@@ -1604,7 +1609,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>24</v>
@@ -1618,7 +1623,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>4</v>
@@ -1632,7 +1637,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1646,7 +1651,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1660,7 +1665,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1668,13 +1673,13 @@
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1710,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>24</v>
@@ -1732,7 +1737,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1740,7 +1745,7 @@
         <v>44</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1748,7 +1753,7 @@
         <v>47</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1756,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1796,7 +1801,7 @@
         <v>52</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -1804,7 +1809,7 @@
         <v>44</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -1812,7 +1817,7 @@
         <v>53</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -1820,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -1860,7 +1865,7 @@
         <v>56</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -1868,7 +1873,7 @@
         <v>44</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -1876,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -1900,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -1908,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -1916,7 +1921,7 @@
         <v>61</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -1924,7 +1929,7 @@
         <v>62</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -1932,15 +1937,15 @@
         <v>63</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -1948,7 +1953,7 @@
         <v>64</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -1956,15 +1961,15 @@
         <v>65</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -1972,7 +1977,7 @@
         <v>66</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -1980,7 +1985,7 @@
         <v>67</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -1988,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
@@ -2012,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
@@ -2025,82 +2030,82 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
@@ -2108,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
@@ -2116,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
@@ -2124,15 +2129,15 @@
         <v>1</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
@@ -2140,7 +2145,7 @@
         <v>21</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
@@ -2148,7 +2153,7 @@
         <v>24</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
@@ -2156,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
